--- a/publication_figures/figure_data/Figure 2.xlsx
+++ b/publication_figures/figure_data/Figure 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\cikk\raw data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DF69D8-BE02-43E3-99E4-9687FFDF0031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23D63BA-6E66-4BE2-BDD8-9E44DE2B9FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C034F943-5BAB-4122-B8A0-5FD2D943D3CD}"/>
   </bookViews>
@@ -122,10 +122,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>97.222222222222214</v>
+        <v>1.0285714290000001</v>
       </c>
       <c r="B2">
         <v>79.970760233918128</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>39.02097902097902</v>
+        <v>2.5627240140000001</v>
       </c>
       <c r="B3">
         <v>29.23076923076923</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>139.53488372093022</v>
+        <v>0.71666666700000003</v>
       </c>
       <c r="B4">
         <v>113.48837209302326</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>78.94736842105263</v>
+        <v>1.266666667</v>
       </c>
       <c r="B5">
         <v>67.719298245614041</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>93.408551068883625</v>
+        <v>1.0705657980000001</v>
       </c>
       <c r="B6">
         <v>77.375296912114024</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>37.103960396039604</v>
+        <v>2.6951300869999999</v>
       </c>
       <c r="B7">
         <v>28.935643564356436</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>63.704617916280981</v>
+        <v>1.5697449139999999</v>
       </c>
       <c r="B8">
         <v>55.36357091432685</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>30.725663716814161</v>
+        <v>3.2546082950000002</v>
       </c>
       <c r="B9">
         <v>37.964601769911503</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>131.41443084136495</v>
+        <v>0.76095143700000001</v>
       </c>
       <c r="B10">
         <v>114.65225319093514</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>42.352941176470587</v>
+        <v>2.361111111</v>
       </c>
       <c r="B11">
         <v>34.100840336134453</v>
@@ -662,12 +662,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>26.317651220374955</v>
+        <v>3.799731183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>282.15181932245923</v>
+        <v>0.35441912199999998</v>
       </c>
       <c r="B13">
         <v>235.00627352572147</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>82.525878755575505</v>
+        <v>1.211741111</v>
       </c>
       <c r="B14">
         <v>77.375375206889771</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>69.259259259259267</v>
+        <v>1.443850267</v>
       </c>
       <c r="B15">
         <v>53.606237816764136</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>81.518597032183465</v>
+        <v>1.226713948</v>
       </c>
       <c r="B16">
         <v>44.401618809019077</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>24.973702263892065</v>
+        <v>4.0042120680000002</v>
       </c>
       <c r="B17">
         <v>16.352618339812487</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>41.860728012661092</v>
+        <v>2.3888738859999998</v>
       </c>
       <c r="B18">
         <v>34.230160524530866</v>
